--- a/eval_table.xlsx
+++ b/eval_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johnathan\Desktop\COMP5046A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5BA04D-E93D-42E3-B51F-CC23E89B81B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AF6D2F-5E75-4E2A-898F-C60D10DB55D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23775" yWindow="2355" windowWidth="25290" windowHeight="15435" xr2:uid="{C3EEA516-343B-4C62-B12E-6173D17075D3}"/>
   </bookViews>
@@ -266,11 +266,6 @@
 Total dimensions = 141</t>
   </si>
   <si>
-    <t>FastText embedding dimension = 100
-custom feature dimensions = 5
-Total dimensions =104</t>
-  </si>
-  <si>
     <t>hidden layers = 50
 Imput embedding = Domain Specific
 Optimizer = SGD
@@ -290,6 +285,11 @@
 Optimizer = SGD, Learning rate: 0.1
 LSTM stacks = 1
 Attention position = between encoder and decoder</t>
+  </si>
+  <si>
+    <t>FastText embedding dimension = 100
+custom feature dimensions = 4
+Total dimensions =104</t>
   </si>
 </sst>
 </file>
@@ -706,7 +706,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,7 +826,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>8</v>
@@ -894,7 +894,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7">
         <v>2</v>
@@ -1004,7 +1004,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="7">
         <v>2</v>
@@ -1093,7 +1093,7 @@
         <v>15</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="7">
         <v>2</v>
